--- a/UserDetails.xlsx
+++ b/UserDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sreejith Mohan\eclipse-workspace\august2ndnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B2936-978C-4AF8-B63E-8891BCE702CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD40F46-3D5D-4527-A51F-15BAB43CFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>34567890</t>
   </si>
   <si>
-    <t>j@gmail.com</t>
+    <t>ftj@gmail.com</t>
   </si>
 </sst>
 </file>
